--- a/new_file.xlsx
+++ b/new_file.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>summa</t>
   </si>
@@ -27,7 +27,16 @@
     <t>kash</t>
   </si>
   <si>
-    <t>aas</t>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>XC</t>
+  </si>
+  <si>
+    <t>aaf</t>
+  </si>
+  <si>
+    <t>sdfwe</t>
   </si>
 </sst>
 </file>
@@ -390,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,7 +423,31 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>12000</v>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>8900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4400</v>
       </c>
     </row>
   </sheetData>
